--- a/pacientes_inconsistentes.xlsx
+++ b/pacientes_inconsistentes.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\desenvolvimento\projetos\EstudoBiopsiaAnatomo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -48,119 +43,119 @@
     <t>SOMA_NU_PA_VALAPR</t>
   </si>
   <si>
+    <t>700800914326586</t>
+  </si>
+  <si>
+    <t>706007868431540</t>
+  </si>
+  <si>
+    <t>700008815594501</t>
+  </si>
+  <si>
+    <t>801440439479776</t>
+  </si>
+  <si>
+    <t>709208222914134</t>
+  </si>
+  <si>
+    <t>708902766397711</t>
+  </si>
+  <si>
+    <t>898001462673262</t>
+  </si>
+  <si>
+    <t>703009857346277</t>
+  </si>
+  <si>
+    <t>801440427711024</t>
+  </si>
+  <si>
     <t>801440468394627</t>
   </si>
   <si>
-    <t>700800914326586</t>
+    <t>898001446596852</t>
+  </si>
+  <si>
+    <t>898001494115648</t>
+  </si>
+  <si>
+    <t>708601095098882</t>
+  </si>
+  <si>
+    <t>801434176801218</t>
+  </si>
+  <si>
+    <t>702006864761488</t>
+  </si>
+  <si>
+    <t>801434188963900</t>
+  </si>
+  <si>
+    <t>801440425840811</t>
+  </si>
+  <si>
+    <t>708109801081510</t>
+  </si>
+  <si>
+    <t>702808672065763</t>
+  </si>
+  <si>
+    <t>709501693114570</t>
   </si>
   <si>
     <t>705005671889451</t>
   </si>
   <si>
-    <t>700008815594501</t>
-  </si>
-  <si>
-    <t>898001446596852</t>
-  </si>
-  <si>
     <t>898001417249279</t>
   </si>
   <si>
+    <t>898001472197102</t>
+  </si>
+  <si>
     <t>801440415734628</t>
   </si>
   <si>
-    <t>709501693114570</t>
-  </si>
-  <si>
-    <t>709208222914134</t>
-  </si>
-  <si>
-    <t>708902766397711</t>
-  </si>
-  <si>
-    <t>706007868431540</t>
-  </si>
-  <si>
-    <t>703009857346277</t>
-  </si>
-  <si>
-    <t>801440425840811</t>
-  </si>
-  <si>
-    <t>801440439479776</t>
-  </si>
-  <si>
-    <t>801434176801218</t>
-  </si>
-  <si>
-    <t>801440427711024</t>
-  </si>
-  <si>
-    <t>702006864761488</t>
-  </si>
-  <si>
-    <t>801434188963900</t>
-  </si>
-  <si>
-    <t>702808672065763</t>
-  </si>
-  <si>
-    <t>708601095098882</t>
-  </si>
-  <si>
-    <t>898001494115648</t>
-  </si>
-  <si>
-    <t>708109801081510</t>
-  </si>
-  <si>
-    <t>898001462673262</t>
-  </si>
-  <si>
-    <t>898001472197102</t>
+    <t>202311</t>
+  </si>
+  <si>
+    <t>202307</t>
+  </si>
+  <si>
+    <t>202306</t>
+  </si>
+  <si>
+    <t>202310</t>
   </si>
   <si>
     <t>202303</t>
   </si>
   <si>
-    <t>202311</t>
+    <t>202305</t>
+  </si>
+  <si>
+    <t>202309</t>
+  </si>
+  <si>
+    <t>202304</t>
   </si>
   <si>
     <t>202308</t>
   </si>
   <si>
-    <t>202305</t>
-  </si>
-  <si>
-    <t>202304</t>
-  </si>
-  <si>
-    <t>202306</t>
-  </si>
-  <si>
-    <t>202307</t>
-  </si>
-  <si>
-    <t>202310</t>
-  </si>
-  <si>
-    <t>202309</t>
-  </si>
-  <si>
     <t>202312</t>
   </si>
   <si>
+    <t>202301</t>
+  </si>
+  <si>
     <t>202302</t>
-  </si>
-  <si>
-    <t>202301</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,19 +218,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -277,7 +264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,10 +296,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,7 +330,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,27 +505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -583,22 +555,22 @@
         <v>202.81</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>244.68</v>
+        <v>40.78</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>447.49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>243.59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -612,7 +584,7 @@
         <v>202.81</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -627,12 +599,12 @@
         <v>243.59</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -641,7 +613,7 @@
         <v>202.81</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -656,7 +628,7 @@
         <v>243.59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -670,7 +642,7 @@
         <v>202.81</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -685,12 +657,12 @@
         <v>243.59</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -714,12 +686,12 @@
         <v>243.59</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -728,7 +700,7 @@
         <v>202.81</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -743,99 +715,99 @@
         <v>243.59</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>202.81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>40.78</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>243.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>202.81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>40.78</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>243.59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>202.81</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>40.78</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>243.59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>202.81</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>40.78</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>243.59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>202.81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>244.68</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>447.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>202.81</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>40.78</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>243.59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -847,21 +819,21 @@
         <v>44</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>40.78</v>
+        <v>244.68</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I11">
-        <v>243.59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>447.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
@@ -888,42 +860,42 @@
         <v>243.59</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>202.81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>40.78</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>243.59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>202.81</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>40.78</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>243.59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
       <c r="C14">
         <v>1</v>
       </c>
@@ -931,28 +903,28 @@
         <v>202.81</v>
       </c>
       <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>40.78</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>243.59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>40.78</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>243.59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
       <c r="C15">
         <v>1</v>
       </c>
@@ -960,53 +932,53 @@
         <v>202.81</v>
       </c>
       <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>40.78</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>243.59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>202.81</v>
+      </c>
+      <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>6</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>244.68</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>7</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>447.49</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>202.81</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>40.78</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>243.59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
@@ -1018,7 +990,7 @@
         <v>202.81</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1033,12 +1005,12 @@
         <v>243.59</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1062,12 +1034,12 @@
         <v>447.49</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1079,34 +1051,34 @@
         <v>43</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>244.68</v>
+        <v>40.78</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>447.49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>243.59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>202.81</v>
+      </c>
+      <c r="E20" t="s">
         <v>37</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>202.81</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
       <c r="F20">
         <v>1</v>
       </c>
@@ -1120,12 +1092,12 @@
         <v>243.59</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1134,7 +1106,7 @@
         <v>202.81</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1149,9 +1121,9 @@
         <v>243.59</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
@@ -1163,7 +1135,7 @@
         <v>202.81</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1178,9 +1150,9 @@
         <v>243.59</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
@@ -1192,66 +1164,66 @@
         <v>202.81</v>
       </c>
       <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>40.78</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>243.59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>202.81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>40.78</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>243.59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>202.81</v>
+      </c>
+      <c r="E25" t="s">
         <v>44</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>40.78</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>243.59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>202.81</v>
-      </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>40.78</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>243.59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>202.81</v>
-      </c>
-      <c r="E25" t="s">
-        <v>38</v>
-      </c>
       <c r="F25">
         <v>1</v>
       </c>
@@ -1265,12 +1237,12 @@
         <v>243.59</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1279,7 +1251,7 @@
         <v>202.81</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F26">
         <v>1</v>
